--- a/xlsx/传统基金会_intext.xlsx
+++ b/xlsx/传统基金会_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>传统基金会</t>
   </si>
@@ -29,19 +29,19 @@
     <t>公共政策</t>
   </si>
   <si>
-    <t>政策_政策_美國_传统基金会</t>
+    <t>政策_政策_美国_传统基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%A7%86%C2%B7%E5%BE%B7%E6%95%8F%E7%89%B9</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美國保守主義</t>
+    <t>美国保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8</t>
   </si>
   <si>
-    <t>共和黨</t>
+    <t>共和党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E4%BA%BA%E7%89%A9</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%8D%E6%A5%B5%E4%B8%8D%E5%B9%B2%E9%A0%90</t>
   </si>
   <si>
-    <t>積極不干預</t>
+    <t>积极不干预</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%88%B8%E5%88%B6</t>
   </si>
   <si>
-    <t>學券制</t>
+    <t>学券制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%87%AA%E7%94%B1%E5%BA%A6%E6%8C%87%E6%95%B0</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%8E%E5%AD%B8%E9%87%91</t>
   </si>
   <si>
-    <t>獎學金</t>
+    <t>奖学金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%BE%B7%E6%BA%AB%C2%B7%E4%BD%9B%E8%A8%A5</t>
   </si>
   <si>
-    <t>艾德溫·佛訥</t>
+    <t>艾德温·佛讷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9D%E6%99%AE</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%99%E5%B0%8F%E8%98%AD</t>
   </si>
   <si>
-    <t>趙小蘭</t>
+    <t>赵小兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>臺北</t>
+    <t>台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
@@ -155,9 +155,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
@@ -197,13 +194,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1227,7 +1224,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
         <v>16</v>
@@ -1253,10 +1250,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1282,10 +1279,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -1311,10 +1308,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1340,10 +1337,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1369,10 +1366,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1398,10 +1395,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1427,10 +1424,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1456,10 +1453,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1485,10 +1482,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1514,10 +1511,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>4</v>
@@ -1543,10 +1540,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
